--- a/static/files/intern.xlsx
+++ b/static/files/intern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>lk</t>
+  </si>
+  <si>
+    <t>kl</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -533,6 +539,44 @@
       <c r="U2" t="s"/>
       <c r="V2" t="s"/>
     </row>
+    <row r="3" spans="1:22">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s"/>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s"/>
+      <c r="L3" t="s"/>
+      <c r="M3" t="s"/>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="s"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/static/files/intern.xlsx
+++ b/static/files/intern.xlsx
@@ -79,13 +79,13 @@
     <t>Motivation</t>
   </si>
   <si>
+    <t>lk</t>
+  </si>
+  <si>
+    <t>kl</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>lk</t>
-  </si>
-  <si>
-    <t>kl</t>
   </si>
 </sst>
 </file>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -512,19 +512,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s"/>
       <c r="H2" t="s"/>
       <c r="I2" t="s"/>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="s"/>
@@ -539,44 +545,6 @@
       <c r="U2" t="s"/>
       <c r="V2" t="s"/>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s"/>
-      <c r="H3" t="s"/>
-      <c r="I3" t="s"/>
-      <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-      <c r="V3" t="s"/>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/static/files/intern.xlsx
+++ b/static/files/intern.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>Id</t>
   </si>
@@ -79,13 +79,19 @@
     <t>Motivation</t>
   </si>
   <si>
-    <t>lk</t>
-  </si>
-  <si>
-    <t>kl</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
+    <t>o</t>
+  </si>
+  <si>
+    <t>po</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>op</t>
+  </si>
+  <si>
+    <t>oo</t>
   </si>
 </sst>
 </file>
@@ -518,7 +524,7 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>22</v>
@@ -526,24 +532,54 @@
       <c r="F2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
       <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="s"/>
-      <c r="M2" t="s"/>
-      <c r="N2" t="s"/>
-      <c r="O2" t="s"/>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
-      <c r="V2" t="s"/>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>21</v>
+      </c>
+      <c r="S2" t="s">
+        <v>21</v>
+      </c>
+      <c r="T2" t="s">
+        <v>21</v>
+      </c>
+      <c r="U2" t="s">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
